--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_02.08.24_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -503,13 +503,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>20.645</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20.888</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2430000000000021</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -528,7 +536,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>285.41</v>
+        <v>60.32</v>
       </c>
       <c r="H3" t="n">
-        <v>286.23</v>
+        <v>60.27</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8199999999999932</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="J3" t="n">
-        <v>0.29</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -566,7 +574,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -575,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>287.76</v>
+        <v>1395.2</v>
       </c>
       <c r="H4" t="n">
-        <v>286.15</v>
+        <v>1408</v>
       </c>
       <c r="I4" t="n">
-        <v>1.610000000000014</v>
+        <v>12.79999999999995</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -593,16 +601,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -611,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>286.02</v>
+        <v>1393.2</v>
       </c>
       <c r="H5" t="n">
-        <v>286.24</v>
+        <v>1400</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2200000000000273</v>
+        <v>6.799999999999955</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.08</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -640,7 +650,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -649,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>131.41</v>
+        <v>0.10084</v>
       </c>
       <c r="H6" t="n">
-        <v>131.33</v>
+        <v>0.09968</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.07999999999998408</v>
+        <v>0.001159999999999994</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.06</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -687,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>130.74</v>
+        <v>0.09864000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>131.27</v>
+        <v>0.09976</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5300000000000011</v>
+        <v>0.001119999999999996</v>
       </c>
       <c r="J7" t="n">
-        <v>0.41</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="8">
@@ -705,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -725,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6643</v>
+        <v>0.09882000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>6662.5</v>
+        <v>0.099</v>
       </c>
       <c r="I8" t="n">
-        <v>19.5</v>
+        <v>0.0001799999999999996</v>
       </c>
       <c r="J8" t="n">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="9">
@@ -743,7 +753,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -763,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6601</v>
+        <v>131.41</v>
       </c>
       <c r="H9" t="n">
-        <v>6599.5</v>
+        <v>131.33</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.5</v>
+        <v>-0.07999999999998408</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.02</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="10">
@@ -781,7 +791,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -792,7 +802,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -801,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6601.5</v>
+        <v>130.74</v>
       </c>
       <c r="H10" t="n">
-        <v>6596</v>
+        <v>131.27</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>0.5300000000000011</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="11">
@@ -819,7 +829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -839,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>503.7</v>
+        <v>128.04</v>
       </c>
       <c r="H11" t="n">
-        <v>506.95</v>
+        <v>128.18</v>
       </c>
       <c r="I11" t="n">
-        <v>3.25</v>
+        <v>0.1400000000000148</v>
       </c>
       <c r="J11" t="n">
-        <v>0.65</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="12">
@@ -857,7 +867,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -868,7 +878,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -877,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>227.79</v>
+        <v>128.82</v>
       </c>
       <c r="H12" t="n">
-        <v>228.97</v>
+        <v>128</v>
       </c>
       <c r="I12" t="n">
-        <v>1.180000000000007</v>
+        <v>0.8199999999999932</v>
       </c>
       <c r="J12" t="n">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="13">
@@ -895,7 +905,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -906,7 +916,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -915,16 +925,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>230.28</v>
+        <v>0.5979</v>
       </c>
       <c r="H13" t="n">
-        <v>229.66</v>
+        <v>0.6012</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6200000000000045</v>
+        <v>0.00329999999999997</v>
       </c>
       <c r="J13" t="n">
-        <v>0.27</v>
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -933,7 +943,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>HYDR</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -944,7 +954,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -953,16 +963,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>229.86</v>
+        <v>0.6022</v>
       </c>
       <c r="H14" t="n">
-        <v>230.24</v>
+        <v>0.6004</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3799999999999955</v>
+        <v>0.001799999999999913</v>
       </c>
       <c r="J14" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15">
@@ -971,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -991,16 +1001,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1026</v>
+        <v>6643</v>
       </c>
       <c r="H15" t="n">
-        <v>1026.6</v>
+        <v>6662.5</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5999999999999091</v>
+        <v>19.5</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="16">
@@ -1009,7 +1019,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1029,16 +1039,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1018</v>
+        <v>6601</v>
       </c>
       <c r="H16" t="n">
-        <v>1020</v>
+        <v>6599.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="17">
@@ -1047,13 +1057,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>short</t>
@@ -1065,16 +1077,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>11.87</v>
+        <v>6601.5</v>
       </c>
       <c r="H17" t="n">
-        <v>11.869</v>
+        <v>6596</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0009999999999994458</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
@@ -1083,7 +1095,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1103,16 +1115,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>128.04</v>
+        <v>50.27</v>
       </c>
       <c r="H18" t="n">
-        <v>128.18</v>
+        <v>50.4</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1400000000000148</v>
+        <v>0.1299999999999955</v>
       </c>
       <c r="J18" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="19">
@@ -1121,7 +1133,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1141,16 +1153,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>128.82</v>
+        <v>50.345</v>
       </c>
       <c r="H19" t="n">
-        <v>128</v>
+        <v>50.375</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8199999999999932</v>
+        <v>-0.03000000000000114</v>
       </c>
       <c r="J19" t="n">
-        <v>0.64</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="20">
@@ -1159,7 +1171,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1170,7 +1182,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1179,16 +1191,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>166</v>
+        <v>227.79</v>
       </c>
       <c r="H20" t="n">
-        <v>165.1</v>
+        <v>228.97</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9000000000000057</v>
+        <v>1.180000000000007</v>
       </c>
       <c r="J20" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="21">
@@ -1197,13 +1209,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>short</t>
@@ -1215,16 +1229,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>165.66</v>
+        <v>230.28</v>
       </c>
       <c r="H21" t="n">
-        <v>165.7</v>
+        <v>229.66</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.03999999999999204</v>
+        <v>0.6200000000000045</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.02</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1247,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1253,16 +1267,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>50.27</v>
+        <v>229.86</v>
       </c>
       <c r="H22" t="n">
-        <v>50.4</v>
+        <v>230.24</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1299999999999955</v>
+        <v>0.3799999999999955</v>
       </c>
       <c r="J22" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="23">
@@ -1271,7 +1285,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1282,7 +1296,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1291,16 +1305,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>50.345</v>
+        <v>2979.3</v>
       </c>
       <c r="H23" t="n">
-        <v>50.375</v>
+        <v>2990</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.03000000000000114</v>
+        <v>10.69999999999982</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.06</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="24">
@@ -1309,7 +1323,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1329,16 +1343,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1395.2</v>
+        <v>2980.45</v>
       </c>
       <c r="H24" t="n">
-        <v>1408</v>
+        <v>2978</v>
       </c>
       <c r="I24" t="n">
-        <v>12.79999999999995</v>
+        <v>-2.449999999999818</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9199999999999999</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="25">
@@ -1347,7 +1361,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1367,16 +1381,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1393.2</v>
+        <v>2962.3</v>
       </c>
       <c r="H25" t="n">
-        <v>1400</v>
+        <v>2967.4</v>
       </c>
       <c r="I25" t="n">
-        <v>6.799999999999955</v>
+        <v>5.099999999999909</v>
       </c>
       <c r="J25" t="n">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="26">
@@ -1385,7 +1399,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1396,7 +1410,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1405,16 +1419,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>60.32</v>
+        <v>2955.5</v>
       </c>
       <c r="H26" t="n">
-        <v>60.27</v>
+        <v>2961.95</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04999999999999716</v>
+        <v>6.449999999999818</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="27">
@@ -1423,13 +1437,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>short</t>
@@ -1441,16 +1457,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>97.59999999999999</v>
+        <v>2969.3</v>
       </c>
       <c r="H27" t="n">
-        <v>97.59999999999999</v>
+        <v>2963.3</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28">
@@ -1459,7 +1475,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1470,7 +1486,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1479,16 +1495,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>56.42</v>
+        <v>2977.5</v>
       </c>
       <c r="H28" t="n">
-        <v>57.16</v>
+        <v>2975</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7399999999999949</v>
+        <v>2.5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.31</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="29">
@@ -1497,7 +1513,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1517,16 +1533,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>56.68</v>
+        <v>2963.45</v>
       </c>
       <c r="H29" t="n">
-        <v>56.89</v>
+        <v>2966.75</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2100000000000009</v>
+        <v>3.300000000000182</v>
       </c>
       <c r="J29" t="n">
-        <v>0.37</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="30">
@@ -1535,7 +1551,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C30" t="b">
@@ -1555,16 +1571,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>57.07</v>
+        <v>166</v>
       </c>
       <c r="H30" t="n">
-        <v>56.88</v>
+        <v>165.1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1899999999999977</v>
+        <v>0.9000000000000057</v>
       </c>
       <c r="J30" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="31">
@@ -1573,7 +1589,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C31" t="b">
@@ -1584,7 +1600,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1593,16 +1609,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>144.94</v>
+        <v>1026</v>
       </c>
       <c r="H31" t="n">
-        <v>145.36</v>
+        <v>1026.6</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.4200000000000159</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.29</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="32">
@@ -1611,7 +1627,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -1631,16 +1647,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>20.645</v>
+        <v>1018</v>
       </c>
       <c r="H32" t="n">
-        <v>20.888</v>
+        <v>1020</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2430000000000021</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="33">
@@ -1649,16 +1665,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1667,16 +1685,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>20.812</v>
+        <v>503.7</v>
       </c>
       <c r="H33" t="n">
-        <v>20.902</v>
+        <v>506.95</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.08999999999999986</v>
+        <v>3.25</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.43</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="34">
@@ -1685,7 +1703,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C34" t="b">
@@ -1705,16 +1723,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>676</v>
+        <v>34.005</v>
       </c>
       <c r="H34" t="n">
-        <v>672.15</v>
+        <v>34.45</v>
       </c>
       <c r="I34" t="n">
-        <v>-3.850000000000023</v>
+        <v>0.4450000000000003</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.5700000000000001</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="35">
@@ -1723,16 +1741,18 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1741,16 +1761,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>674.2</v>
+        <v>285.41</v>
       </c>
       <c r="H35" t="n">
-        <v>677.45</v>
+        <v>286.23</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.25</v>
+        <v>0.8199999999999932</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.48</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="36">
@@ -1759,7 +1779,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C36" t="b">
@@ -1779,16 +1799,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.10084</v>
+        <v>287.76</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09968</v>
+        <v>286.15</v>
       </c>
       <c r="I36" t="n">
-        <v>0.001160000000000008</v>
+        <v>1.610000000000014</v>
       </c>
       <c r="J36" t="n">
-        <v>1.15</v>
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1797,7 +1817,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C37" t="b">
@@ -1817,16 +1837,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.09864000000000001</v>
+        <v>56.42</v>
       </c>
       <c r="H37" t="n">
-        <v>0.09976</v>
+        <v>57.16</v>
       </c>
       <c r="I37" t="n">
-        <v>0.001119999999999996</v>
+        <v>0.7399999999999949</v>
       </c>
       <c r="J37" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="38">
@@ -1835,7 +1855,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1855,16 +1875,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.09882000000000001</v>
+        <v>56.68</v>
       </c>
       <c r="H38" t="n">
-        <v>0.099</v>
+        <v>56.89</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0001799999999999996</v>
+        <v>0.2100000000000009</v>
       </c>
       <c r="J38" t="n">
-        <v>0.18</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="39">
@@ -1873,7 +1893,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C39" t="b">
@@ -1884,7 +1904,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1893,16 +1913,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5979</v>
+        <v>57.07</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6012000000000001</v>
+        <v>56.88</v>
       </c>
       <c r="I39" t="n">
-        <v>0.003300000000000081</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5499999999999999</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="40">
@@ -1911,7 +1931,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1922,7 +1942,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1931,16 +1951,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6022000000000001</v>
+        <v>676</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6004</v>
+        <v>672.15</v>
       </c>
       <c r="I40" t="n">
-        <v>0.001800000000000024</v>
+        <v>-3.850000000000023</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3</v>
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1949,7 +1969,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C41" t="b">
@@ -1960,7 +1980,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1969,16 +1989,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2979.3</v>
+        <v>144.94</v>
       </c>
       <c r="H41" t="n">
-        <v>2990</v>
+        <v>145.36</v>
       </c>
       <c r="I41" t="n">
-        <v>10.69999999999982</v>
+        <v>-0.4200000000000159</v>
       </c>
       <c r="J41" t="n">
-        <v>0.36</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="42">
@@ -1987,18 +2007,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2007,16 +2025,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2980.45</v>
+        <v>20.812</v>
       </c>
       <c r="H42" t="n">
-        <v>2978</v>
+        <v>20.902</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.449999999999818</v>
+        <v>-0.08999999999999986</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.08</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="43">
@@ -2025,18 +2043,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2045,16 +2061,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2962.3</v>
+        <v>11.87</v>
       </c>
       <c r="H43" t="n">
-        <v>2967.4</v>
+        <v>11.869</v>
       </c>
       <c r="I43" t="n">
-        <v>5.099999999999909</v>
+        <v>0.0009999999999994458</v>
       </c>
       <c r="J43" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44">
@@ -2063,18 +2079,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2083,16 +2097,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2955.5</v>
+        <v>165.66</v>
       </c>
       <c r="H44" t="n">
-        <v>2961.95</v>
+        <v>165.7</v>
       </c>
       <c r="I44" t="n">
-        <v>6.449999999999818</v>
+        <v>-0.03999999999999204</v>
       </c>
       <c r="J44" t="n">
-        <v>0.22</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="45">
@@ -2101,15 +2115,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>short</t>
@@ -2121,16 +2133,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2969.3</v>
+        <v>286.02</v>
       </c>
       <c r="H45" t="n">
-        <v>2963.3</v>
+        <v>286.24</v>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>-0.2200000000000273</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="46">
@@ -2139,15 +2151,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>short</t>
@@ -2159,16 +2169,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2977.5</v>
+        <v>674.2</v>
       </c>
       <c r="H46" t="n">
-        <v>2975</v>
+        <v>677.45</v>
       </c>
       <c r="I46" t="n">
-        <v>2.5</v>
+        <v>-3.25</v>
       </c>
       <c r="J46" t="n">
-        <v>0.08</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="47">
@@ -2177,18 +2187,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
-      <c r="D47" t="b">
-        <v>1</v>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2197,54 +2205,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2963.45</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2966.75</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="I47" t="n">
-        <v>3.300000000000182</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>RUAL</t>
-        </is>
-      </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
-      <c r="D48" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>34.005</v>
-      </c>
-      <c r="H48" t="n">
-        <v>34.45</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.4450000000000003</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2258,7 +2228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2371,13 +2341,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002460000000000004</v>
+        <v>0.00245999999999999</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0008200000000000013</v>
+        <v>0.0008199999999999966</v>
       </c>
       <c r="E5" t="n">
         <v>2.47</v>
@@ -2547,13 +2517,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.005100000000000104</v>
+        <v>0.005099999999999882</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002550000000000052</v>
+        <v>0.002549999999999941</v>
       </c>
       <c r="E13" t="n">
         <v>0.8499999999999999</v>
@@ -2759,24 +2729,6 @@
       <c r="F22" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
